--- a/Smoke/ExcelDatosCuentas.xlsx
+++ b/Smoke/ExcelDatosCuentas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Smoke\Smoke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1F3FC-2F5B-4385-9FEA-6FF95FE24BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4301EA2F-CD5D-4AF0-8803-11A033192A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>Ambiente</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>PAS</t>
   </si>
   <si>
@@ -65,12 +59,6 @@
   </si>
   <si>
     <t>NumeroCalle</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Contrasenia</t>
   </si>
   <si>
     <t>silverarrow</t>
@@ -423,16 +411,16 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="A2" t="str">
-            <v>PruebaL</v>
+            <v>SmokeDiez</v>
           </cell>
           <cell r="B2" t="str">
-            <v>PruebaL</v>
+            <v>SmokeDiez</v>
           </cell>
           <cell r="C2">
-            <v>21546993</v>
+            <v>21546910</v>
           </cell>
           <cell r="D2">
-            <v>135</v>
+            <v>142</v>
           </cell>
         </row>
       </sheetData>
@@ -765,123 +753,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f>[1]DatosCuenta!$A$2</f>
+        <v>SmokeDiez</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]DatosCuenta!$B$2</f>
+        <v>SmokeDiez</v>
+      </c>
+      <c r="D2">
+        <f>[1]DatosCuenta!$C$2</f>
+        <v>21546910</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="str">
-        <f>[1]DatosCuenta!$A$2</f>
-        <v>PruebaL</v>
-      </c>
-      <c r="G2" t="str">
-        <f>[1]DatosCuenta!$B$2</f>
-        <v>PruebaL</v>
-      </c>
-      <c r="H2">
-        <f>[1]DatosCuenta!$C$2</f>
-        <v>21546993</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2">
         <f>[1]DatosCuenta!$D$2</f>
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C136AE5F-8B71-4D0F-B7CF-7AB5E19B131A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -901,43 +860,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H1">
         <v>20300110</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O1">
         <v>114</v>
@@ -948,43 +907,43 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>20300111</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O2">
         <v>115</v>
@@ -995,43 +954,43 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3">
         <v>20300112</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O3">
         <v>116</v>
@@ -1042,43 +1001,43 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>20300113</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O4">
         <v>117</v>
@@ -1089,43 +1048,43 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>20300108</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O5">
         <v>112</v>
@@ -1133,46 +1092,46 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>20300109</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O6">
         <v>113</v>
@@ -1183,40 +1142,40 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H7">
         <v>20300102</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O7" s="6">
         <v>100</v>
@@ -1227,40 +1186,40 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H8">
         <v>20300108</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O8" s="6">
         <v>101</v>
@@ -1271,43 +1230,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>20300102</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O9">
         <v>102</v>
@@ -1318,43 +1277,43 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>20300103</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O10">
         <v>103</v>
@@ -1365,43 +1324,43 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>20300104</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O11">
         <v>104</v>
@@ -1412,43 +1371,43 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>20300105</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O12">
         <v>105</v>
@@ -1459,43 +1418,43 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>20300106</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O13">
         <v>106</v>
@@ -1506,43 +1465,43 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H14">
         <v>20300107</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O14">
         <v>107</v>
@@ -1553,43 +1512,43 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H15">
         <v>20300108</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O15">
         <v>108</v>
@@ -1600,40 +1559,40 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
       </c>
       <c r="H16">
         <v>21546980</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O16">
         <v>122</v>
@@ -1641,40 +1600,40 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H17">
         <v>21546981</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O17">
         <v>123</v>
@@ -1682,40 +1641,40 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <v>21546982</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O18">
         <v>124</v>
@@ -1723,40 +1682,40 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>21546983</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O19">
         <v>125</v>
@@ -1764,40 +1723,40 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H20">
         <v>21546984</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O20">
         <v>126</v>
@@ -1805,40 +1764,40 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H21">
         <v>21546985</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O21">
         <v>127</v>
@@ -1846,40 +1805,40 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H22">
         <v>21546986</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O22">
         <v>128</v>
@@ -1887,40 +1846,40 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H23">
         <v>21546987</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O23">
         <v>129</v>
@@ -1928,40 +1887,40 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H24">
         <v>21546988</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O24">
         <v>130</v>
@@ -1969,40 +1928,40 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H25">
         <v>21546989</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O25">
         <v>131</v>
@@ -2010,40 +1969,40 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H26">
         <v>21546990</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O26">
         <v>132</v>
